--- a/src/utils/sxsyzlzq/shijiesai/第6次_4强表格.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第6次_4强表格.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>英雄</t>
   </si>
@@ -362,34 +362,31 @@
     <t>白处尊</t>
   </si>
   <si>
-    <t>影弑·辛柯斯</t>
+    <t>影弑-辛柯斯</t>
   </si>
   <si>
     <t>辛可斯</t>
   </si>
   <si>
-    <t>烈焰领主·伊格纳</t>
+    <t>烈焰领主-伊格纳</t>
   </si>
   <si>
     <t>领主</t>
   </si>
   <si>
-    <t>万物宗师·洛</t>
+    <t>万物宗师-洛</t>
   </si>
   <si>
     <t>洛</t>
   </si>
   <si>
-    <t>海湾领主·萨维丽娅</t>
-  </si>
-  <si>
-    <t>术法秘使·朱贝</t>
+    <t>术法秘使-朱贝</t>
   </si>
   <si>
     <t>朱贝</t>
   </si>
   <si>
-    <t>典狱长·萨卡斯特</t>
+    <t>典狱长-萨卡斯特</t>
   </si>
   <si>
     <t>典狱长</t>
@@ -1023,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,28 +1030,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2840,7 +2819,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
@@ -2884,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(C2,D2)</f>
+        <f t="shared" ref="E2:E32" si="0">SUM(C2,D2)</f>
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>C2/E2</f>
+        <f t="shared" ref="F2:F32" si="1">C2/E2</f>
         <v>1</v>
       </c>
     </row>
@@ -2906,33 +2885,33 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM(C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/E3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <f>SUM(C4,D4)</f>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/E4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2950,253 +2929,253 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f>SUM(C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <f>C5/E5</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
-        <f>SUM(C6,D6)</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F6" s="5">
-        <f>C6/E6</f>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
         <v>0.739130434782609</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>23</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
-        <f>SUM(C7,D7)</f>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F7" s="5">
-        <f>C7/E7</f>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>0.58974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
-        <f>SUM(C8,D8)</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F8" s="5">
-        <f>C8/E8</f>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>0.588235294117647</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
-        <f>SUM(C9,D9)</f>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F9" s="5">
-        <f>C9/E9</f>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>0.588235294117647</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="6">
-        <f>SUM(C10,D10)</f>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F10" s="7">
-        <f>C10/E10</f>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>0.588235294117647</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
-        <f>SUM(C11,D11)</f>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="7">
-        <f>C11/E11</f>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>25</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>21</v>
       </c>
-      <c r="E12" s="4">
-        <f>SUM(C12,D12)</f>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F12" s="5">
-        <f>C12/E12</f>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
         <v>0.543478260869565</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
-        <f>SUM(C13,D13)</f>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F13" s="5">
-        <f>C13/E13</f>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <f>SUM(C14,D14)</f>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F14" s="2">
-        <f>C14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM(C15,D15)</f>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <f>C15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>13</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
-        <f>SUM(C16,D16)</f>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F16" s="8">
-        <f>C16/E16</f>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
         <v>0.481481481481481</v>
       </c>
     </row>
@@ -3214,11 +3193,11 @@
         <v>11</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM(C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F17" s="2">
-        <f>C17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.476190476190476</v>
       </c>
     </row>
@@ -3236,11 +3215,11 @@
         <v>11</v>
       </c>
       <c r="E18" s="1">
-        <f>SUM(C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F18" s="2">
-        <f>C18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.421052631578947</v>
       </c>
     </row>
@@ -3258,11 +3237,11 @@
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM(C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F19" s="2">
-        <f>C19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3280,165 +3259,165 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM(C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F20" s="2">
-        <f>C20/E20</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>10</v>
       </c>
-      <c r="E21" s="9">
-        <f>SUM(C21,D21)</f>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F21" s="10">
-        <f>C21/E21</f>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="9">
-        <f>SUM(C22,D22)</f>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F22" s="10">
-        <f>C22/E22</f>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="11">
-        <f>SUM(C23,D23)</f>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F23" s="10">
-        <f>C23/E23</f>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="11">
-        <f>SUM(C24,D24)</f>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="10">
-        <f>C24/E24</f>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <v>11</v>
       </c>
-      <c r="E25" s="9">
-        <f>SUM(C25,D25)</f>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F25" s="10">
-        <f>C25/E25</f>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="9">
-        <f>SUM(C26,D26)</f>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F26" s="10">
-        <f>C26/E26</f>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>4</v>
       </c>
-      <c r="E27" s="11">
-        <f>SUM(C27,D27)</f>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F27" s="12">
-        <f>C27/E27</f>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3456,33 +3435,33 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <f>SUM(C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F28" s="2">
-        <f>C28/E28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <f>SUM(C29,D29)</f>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f>C29/E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3500,55 +3479,55 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f>SUM(C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <f>C30/E30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="3">
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <f>SUM(C31,D31)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <f>C31/E31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <f>SUM(C32,D32)</f>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="2">
-        <f>C32/E32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
